--- a/contratos/contratos-7-2014.xlsx
+++ b/contratos/contratos-7-2014.xlsx
@@ -910,7 +910,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -964,13 +964,13 @@
     <t>TOSCANO ANDRES JORGE</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BENEDETTI MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1063,7 +1063,7 @@
     <t>SCEVOLA FABIAN RICARDO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1081,7 +1081,7 @@
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1348,7 +1348,7 @@
     <t>TITO SONIDO</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>PINTURERIA URUGUAY / ARCO IRIS</t>
@@ -1510,712 +1510,712 @@
     <t>20</t>
   </si>
   <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>13.340,50</t>
-  </si>
-  <si>
-    <t>70.600,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>2.680.000,00</t>
-  </si>
-  <si>
-    <t>345.000,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>1.634,40</t>
-  </si>
-  <si>
-    <t>17.800,00</t>
-  </si>
-  <si>
-    <t>254,95</t>
-  </si>
-  <si>
-    <t>275.928,79</t>
-  </si>
-  <si>
-    <t>425.000,00</t>
-  </si>
-  <si>
-    <t>2.117,50</t>
-  </si>
-  <si>
-    <t>4.984,84</t>
-  </si>
-  <si>
-    <t>1.267,22</t>
-  </si>
-  <si>
-    <t>3.136,00</t>
-  </si>
-  <si>
-    <t>906,24</t>
-  </si>
-  <si>
-    <t>58.700,00</t>
-  </si>
-  <si>
-    <t>508.080,08</t>
-  </si>
-  <si>
-    <t>14.929,60</t>
-  </si>
-  <si>
-    <t>2.360,56</t>
-  </si>
-  <si>
-    <t>65.854,09</t>
-  </si>
-  <si>
-    <t>2.325,00</t>
-  </si>
-  <si>
-    <t>26.125,00</t>
-  </si>
-  <si>
-    <t>1.932,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>1.833,00</t>
-  </si>
-  <si>
-    <t>12.324,59</t>
-  </si>
-  <si>
-    <t>6.376,51</t>
-  </si>
-  <si>
-    <t>7.440,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>817,20</t>
-  </si>
-  <si>
-    <t>1.095,00</t>
-  </si>
-  <si>
-    <t>1.590,92</t>
-  </si>
-  <si>
-    <t>3.049,20</t>
-  </si>
-  <si>
-    <t>157,50</t>
-  </si>
-  <si>
-    <t>29.210,50</t>
-  </si>
-  <si>
-    <t>3.347,80</t>
-  </si>
-  <si>
-    <t>758,00</t>
-  </si>
-  <si>
-    <t>25.653,17</t>
-  </si>
-  <si>
-    <t>228,85</t>
-  </si>
-  <si>
-    <t>96,24</t>
-  </si>
-  <si>
-    <t>54.274,00</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>109,20</t>
-  </si>
-  <si>
-    <t>22.845,19</t>
-  </si>
-  <si>
-    <t>779,00</t>
-  </si>
-  <si>
-    <t>245,00</t>
-  </si>
-  <si>
-    <t>547,18</t>
-  </si>
-  <si>
-    <t>2.655,00</t>
-  </si>
-  <si>
-    <t>218,40</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>54.626,48</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>6.530,75</t>
-  </si>
-  <si>
-    <t>325,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>10.743,00</t>
-  </si>
-  <si>
-    <t>92.506,04</t>
-  </si>
-  <si>
-    <t>153,62</t>
-  </si>
-  <si>
-    <t>187.979,81</t>
-  </si>
-  <si>
-    <t>3.686,00</t>
-  </si>
-  <si>
-    <t>9.794,30</t>
-  </si>
-  <si>
-    <t>82.875,00</t>
-  </si>
-  <si>
-    <t>1.667,76</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>879,13</t>
-  </si>
-  <si>
-    <t>5.033,35</t>
-  </si>
-  <si>
-    <t>4.590,00</t>
-  </si>
-  <si>
-    <t>2.070,66</t>
-  </si>
-  <si>
-    <t>2.978,75</t>
-  </si>
-  <si>
-    <t>13.895,00</t>
-  </si>
-  <si>
-    <t>1.879,25</t>
-  </si>
-  <si>
-    <t>247,44</t>
-  </si>
-  <si>
-    <t>1.915,00</t>
-  </si>
-  <si>
-    <t>3.844,00</t>
-  </si>
-  <si>
-    <t>9.564,00</t>
-  </si>
-  <si>
-    <t>408,00</t>
-  </si>
-  <si>
-    <t>3.379,08</t>
-  </si>
-  <si>
-    <t>111,40</t>
-  </si>
-  <si>
-    <t>1.604,40</t>
-  </si>
-  <si>
-    <t>54,56</t>
-  </si>
-  <si>
-    <t>655,00</t>
-  </si>
-  <si>
-    <t>721,48</t>
-  </si>
-  <si>
-    <t>294,80</t>
-  </si>
-  <si>
-    <t>57.780,00</t>
-  </si>
-  <si>
-    <t>2.365,00</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>1.840,00</t>
-  </si>
-  <si>
-    <t>1.920,00</t>
-  </si>
-  <si>
-    <t>817,00</t>
-  </si>
-  <si>
-    <t>30.936,00</t>
-  </si>
-  <si>
-    <t>19.257,00</t>
-  </si>
-  <si>
-    <t>87.279,60</t>
-  </si>
-  <si>
-    <t>30.057,00</t>
-  </si>
-  <si>
-    <t>1.395,00</t>
-  </si>
-  <si>
-    <t>11.859,00</t>
-  </si>
-  <si>
-    <t>712,00</t>
-  </si>
-  <si>
-    <t>17.558,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>149,00</t>
-  </si>
-  <si>
-    <t>274,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>5.898,60</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>4.250,00</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>2.057,02</t>
-  </si>
-  <si>
-    <t>26.116,00</t>
-  </si>
-  <si>
-    <t>348,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>1.077,50</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>264.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>83.000,00</t>
-  </si>
-  <si>
-    <t>289.935,82</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>65.870,10</t>
-  </si>
-  <si>
-    <t>64,51</t>
-  </si>
-  <si>
-    <t>9.018,03</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>83,50</t>
-  </si>
-  <si>
-    <t>697,50</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>35,20</t>
-  </si>
-  <si>
-    <t>465,76</t>
-  </si>
-  <si>
-    <t>5.140,70</t>
-  </si>
-  <si>
-    <t>1.322,00</t>
-  </si>
-  <si>
-    <t>40.688,00</t>
-  </si>
-  <si>
-    <t>2.772,00</t>
-  </si>
-  <si>
-    <t>1.155,00</t>
-  </si>
-  <si>
-    <t>527,00</t>
-  </si>
-  <si>
-    <t>66,66</t>
-  </si>
-  <si>
-    <t>39,00</t>
-  </si>
-  <si>
-    <t>92,62</t>
-  </si>
-  <si>
-    <t>259,20</t>
-  </si>
-  <si>
-    <t>7.104,35</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>2.700,25</t>
-  </si>
-  <si>
-    <t>43,77</t>
-  </si>
-  <si>
-    <t>504,00</t>
-  </si>
-  <si>
-    <t>309,84</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>5.885,67</t>
-  </si>
-  <si>
-    <t>2.820,00</t>
-  </si>
-  <si>
-    <t>22.755,50</t>
-  </si>
-  <si>
-    <t>3.314,00</t>
-  </si>
-  <si>
-    <t>5.992,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.820,01</t>
-  </si>
-  <si>
-    <t>1.394,75</t>
-  </si>
-  <si>
-    <t>535,70</t>
-  </si>
-  <si>
-    <t>4.647,00</t>
-  </si>
-  <si>
-    <t>272,00</t>
-  </si>
-  <si>
-    <t>895,66</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>179.680,00</t>
-  </si>
-  <si>
-    <t>29.102,52</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>8.046,50</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>29.440,66</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>9.960,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>5.180,00</t>
-  </si>
-  <si>
-    <t>17.750,70</t>
-  </si>
-  <si>
-    <t>1.360,00</t>
-  </si>
-  <si>
-    <t>12.481,60</t>
-  </si>
-  <si>
-    <t>2.540,00</t>
-  </si>
-  <si>
-    <t>674,74</t>
-  </si>
-  <si>
-    <t>87,00</t>
-  </si>
-  <si>
-    <t>22.714,00</t>
-  </si>
-  <si>
-    <t>2.087,00</t>
-  </si>
-  <si>
-    <t>3.890,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>692,90</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>6.652,41</t>
-  </si>
-  <si>
-    <t>7.455,76</t>
-  </si>
-  <si>
-    <t>1.313,85</t>
-  </si>
-  <si>
-    <t>12.430,00</t>
-  </si>
-  <si>
-    <t>1.515,00</t>
-  </si>
-  <si>
-    <t>4.546,15</t>
-  </si>
-  <si>
-    <t>9.990,00</t>
-  </si>
-  <si>
-    <t>683,64</t>
-  </si>
-  <si>
-    <t>81,20</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>523,20</t>
-  </si>
-  <si>
-    <t>3.647,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>117.094,80</t>
-  </si>
-  <si>
-    <t>36.021,76</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>2.154,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>20.731,31</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>290,20</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>43,86</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>123.983,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>95.000,00</t>
-  </si>
-  <si>
-    <t>116.400,00</t>
-  </si>
-  <si>
-    <t>57.749,66</t>
-  </si>
-  <si>
-    <t>244.344,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>268.304,00</t>
-  </si>
-  <si>
-    <t>48.374,73</t>
-  </si>
-  <si>
-    <t>9.065,00</t>
-  </si>
-  <si>
-    <t>2.070,00</t>
-  </si>
-  <si>
-    <t>179.850,00</t>
-  </si>
-  <si>
-    <t>62.300,00</t>
-  </si>
-  <si>
-    <t>272,54</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>835.000,00</t>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>13340.50</t>
+  </si>
+  <si>
+    <t>70600.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>2680000.00</t>
+  </si>
+  <si>
+    <t>345000.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>1634.40</t>
+  </si>
+  <si>
+    <t>17800.00</t>
+  </si>
+  <si>
+    <t>254.95</t>
+  </si>
+  <si>
+    <t>275928.79</t>
+  </si>
+  <si>
+    <t>425000.00</t>
+  </si>
+  <si>
+    <t>2117.50</t>
+  </si>
+  <si>
+    <t>4984.84</t>
+  </si>
+  <si>
+    <t>1267.22</t>
+  </si>
+  <si>
+    <t>3136.00</t>
+  </si>
+  <si>
+    <t>906.24</t>
+  </si>
+  <si>
+    <t>58700.00</t>
+  </si>
+  <si>
+    <t>508080.08</t>
+  </si>
+  <si>
+    <t>14929.60</t>
+  </si>
+  <si>
+    <t>2360.56</t>
+  </si>
+  <si>
+    <t>65854.09</t>
+  </si>
+  <si>
+    <t>2325.00</t>
+  </si>
+  <si>
+    <t>26125.00</t>
+  </si>
+  <si>
+    <t>1932.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>1833.00</t>
+  </si>
+  <si>
+    <t>12324.59</t>
+  </si>
+  <si>
+    <t>6376.51</t>
+  </si>
+  <si>
+    <t>7440.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>817.20</t>
+  </si>
+  <si>
+    <t>1095.00</t>
+  </si>
+  <si>
+    <t>1590.92</t>
+  </si>
+  <si>
+    <t>3049.20</t>
+  </si>
+  <si>
+    <t>157.50</t>
+  </si>
+  <si>
+    <t>29210.50</t>
+  </si>
+  <si>
+    <t>3347.80</t>
+  </si>
+  <si>
+    <t>758.00</t>
+  </si>
+  <si>
+    <t>25653.17</t>
+  </si>
+  <si>
+    <t>228.85</t>
+  </si>
+  <si>
+    <t>96.24</t>
+  </si>
+  <si>
+    <t>54274.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>109.20</t>
+  </si>
+  <si>
+    <t>22845.19</t>
+  </si>
+  <si>
+    <t>779.00</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>547.18</t>
+  </si>
+  <si>
+    <t>2655.00</t>
+  </si>
+  <si>
+    <t>218.40</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>54626.48</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>6530.75</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>10743.00</t>
+  </si>
+  <si>
+    <t>92506.04</t>
+  </si>
+  <si>
+    <t>153.62</t>
+  </si>
+  <si>
+    <t>187979.81</t>
+  </si>
+  <si>
+    <t>3686.00</t>
+  </si>
+  <si>
+    <t>9794.30</t>
+  </si>
+  <si>
+    <t>82875.00</t>
+  </si>
+  <si>
+    <t>1667.76</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>879.13</t>
+  </si>
+  <si>
+    <t>5033.35</t>
+  </si>
+  <si>
+    <t>4590.00</t>
+  </si>
+  <si>
+    <t>2070.66</t>
+  </si>
+  <si>
+    <t>2978.75</t>
+  </si>
+  <si>
+    <t>13895.00</t>
+  </si>
+  <si>
+    <t>1879.25</t>
+  </si>
+  <si>
+    <t>247.44</t>
+  </si>
+  <si>
+    <t>1915.00</t>
+  </si>
+  <si>
+    <t>3844.00</t>
+  </si>
+  <si>
+    <t>9564.00</t>
+  </si>
+  <si>
+    <t>408.00</t>
+  </si>
+  <si>
+    <t>3379.08</t>
+  </si>
+  <si>
+    <t>111.40</t>
+  </si>
+  <si>
+    <t>1604.40</t>
+  </si>
+  <si>
+    <t>54.56</t>
+  </si>
+  <si>
+    <t>655.00</t>
+  </si>
+  <si>
+    <t>721.48</t>
+  </si>
+  <si>
+    <t>294.80</t>
+  </si>
+  <si>
+    <t>57780.00</t>
+  </si>
+  <si>
+    <t>2365.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>1840.00</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>817.00</t>
+  </si>
+  <si>
+    <t>30936.00</t>
+  </si>
+  <si>
+    <t>19257.00</t>
+  </si>
+  <si>
+    <t>87279.60</t>
+  </si>
+  <si>
+    <t>30057.00</t>
+  </si>
+  <si>
+    <t>1395.00</t>
+  </si>
+  <si>
+    <t>11859.00</t>
+  </si>
+  <si>
+    <t>712.00</t>
+  </si>
+  <si>
+    <t>17558.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>5898.60</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>4250.00</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>2057.02</t>
+  </si>
+  <si>
+    <t>26116.00</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>1077.50</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>264000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>83000.00</t>
+  </si>
+  <si>
+    <t>289935.82</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>65870.10</t>
+  </si>
+  <si>
+    <t>64.51</t>
+  </si>
+  <si>
+    <t>9018.03</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>83.50</t>
+  </si>
+  <si>
+    <t>697.50</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>35.20</t>
+  </si>
+  <si>
+    <t>465.76</t>
+  </si>
+  <si>
+    <t>5140.70</t>
+  </si>
+  <si>
+    <t>1322.00</t>
+  </si>
+  <si>
+    <t>40688.00</t>
+  </si>
+  <si>
+    <t>2772.00</t>
+  </si>
+  <si>
+    <t>1155.00</t>
+  </si>
+  <si>
+    <t>527.00</t>
+  </si>
+  <si>
+    <t>66.66</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>92.62</t>
+  </si>
+  <si>
+    <t>259.20</t>
+  </si>
+  <si>
+    <t>7104.35</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>2700.25</t>
+  </si>
+  <si>
+    <t>43.77</t>
+  </si>
+  <si>
+    <t>504.00</t>
+  </si>
+  <si>
+    <t>309.84</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>5885.67</t>
+  </si>
+  <si>
+    <t>2820.00</t>
+  </si>
+  <si>
+    <t>22755.50</t>
+  </si>
+  <si>
+    <t>3314.00</t>
+  </si>
+  <si>
+    <t>5992.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1820.01</t>
+  </si>
+  <si>
+    <t>1394.75</t>
+  </si>
+  <si>
+    <t>535.70</t>
+  </si>
+  <si>
+    <t>4647.00</t>
+  </si>
+  <si>
+    <t>272.00</t>
+  </si>
+  <si>
+    <t>895.66</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>179680.00</t>
+  </si>
+  <si>
+    <t>29102.52</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>8046.50</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>29440.66</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>9960.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>5180.00</t>
+  </si>
+  <si>
+    <t>17750.70</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>12481.60</t>
+  </si>
+  <si>
+    <t>2540.00</t>
+  </si>
+  <si>
+    <t>674.74</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>22714.00</t>
+  </si>
+  <si>
+    <t>2087.00</t>
+  </si>
+  <si>
+    <t>3890.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>692.90</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>6652.41</t>
+  </si>
+  <si>
+    <t>7455.76</t>
+  </si>
+  <si>
+    <t>1313.85</t>
+  </si>
+  <si>
+    <t>12430.00</t>
+  </si>
+  <si>
+    <t>1515.00</t>
+  </si>
+  <si>
+    <t>4546.15</t>
+  </si>
+  <si>
+    <t>9990.00</t>
+  </si>
+  <si>
+    <t>683.64</t>
+  </si>
+  <si>
+    <t>81.20</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>523.20</t>
+  </si>
+  <si>
+    <t>3647.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>117094.80</t>
+  </si>
+  <si>
+    <t>36021.76</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>2154.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>20731.31</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>290.20</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>43.86</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>123983.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>95000.00</t>
+  </si>
+  <si>
+    <t>116400.00</t>
+  </si>
+  <si>
+    <t>57749.66</t>
+  </si>
+  <si>
+    <t>244344.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>268304.00</t>
+  </si>
+  <si>
+    <t>48374.73</t>
+  </si>
+  <si>
+    <t>9065.00</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>179850.00</t>
+  </si>
+  <si>
+    <t>62300.00</t>
+  </si>
+  <si>
+    <t>272.54</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>835000.00</t>
   </si>
 </sst>
 </file>
